--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>InsuredNumbers</t>
   </si>
@@ -19,34 +19,184 @@
     <t>UninsuredNumbers</t>
   </si>
   <si>
+    <t>GK69AUX</t>
+  </si>
+  <si>
+    <t>GY69HWJ</t>
+  </si>
+  <si>
+    <t>LG69AHU</t>
+  </si>
+  <si>
+    <t>GY19UVA</t>
+  </si>
+  <si>
+    <t>WM19FHS</t>
+  </si>
+  <si>
+    <t>GY69HWF</t>
+  </si>
+  <si>
+    <t>gy19uun</t>
+  </si>
+  <si>
+    <t>SM19OTU</t>
+  </si>
+  <si>
+    <t>GU69MLE</t>
+  </si>
+  <si>
+    <t>LG19BSD</t>
+  </si>
+  <si>
+    <t>VF19AHL</t>
+  </si>
+  <si>
+    <t>CN19DXA</t>
+  </si>
+  <si>
+    <t>GU69WBY</t>
+  </si>
+  <si>
+    <t>LR69ARU</t>
+  </si>
+  <si>
+    <t>TH04HER</t>
+  </si>
+  <si>
+    <t>GU69OBJ</t>
+  </si>
+  <si>
+    <t>VF19WEW</t>
+  </si>
+  <si>
+    <t>GK69ASU</t>
+  </si>
+  <si>
+    <t>FA19XEV</t>
+  </si>
+  <si>
+    <t>VO69WTM</t>
+  </si>
+  <si>
+    <t>LF19KSP</t>
+  </si>
+  <si>
+    <t>GX69OJJ</t>
+  </si>
+  <si>
+    <t>GH19MUE</t>
+  </si>
+  <si>
+    <t>RV63ZKR</t>
+  </si>
+  <si>
     <t>VN19UBD</t>
   </si>
   <si>
+    <t>BD62OEW</t>
+  </si>
+  <si>
+    <t>VK69HCD</t>
+  </si>
+  <si>
+    <t>KY19GGC</t>
+  </si>
+  <si>
+    <t>VF19YBV</t>
+  </si>
+  <si>
+    <t>LA19XNZ</t>
+  </si>
+  <si>
+    <t>YV19DHL</t>
+  </si>
+  <si>
+    <t>WM19FJP</t>
+  </si>
+  <si>
+    <t>KP69FAM</t>
+  </si>
+  <si>
+    <t>VK69HDV</t>
+  </si>
+  <si>
+    <t>GY69TCO</t>
+  </si>
+  <si>
+    <t>KC19KHJ</t>
+  </si>
+  <si>
+    <t>KC19KFO</t>
+  </si>
+  <si>
+    <t>VO69MDX</t>
+  </si>
+  <si>
     <t>LR19FMD</t>
   </si>
   <si>
-    <t>GY19UVA</t>
-  </si>
-  <si>
-    <t>YV19DHL</t>
-  </si>
-  <si>
-    <t>CN19DXA</t>
-  </si>
-  <si>
-    <t>KY19GGC</t>
-  </si>
-  <si>
-    <t>SM19OTU</t>
+    <t>KC19KGN</t>
+  </si>
+  <si>
+    <t>BG69UHW</t>
+  </si>
+  <si>
+    <t>GK69AUW</t>
+  </si>
+  <si>
+    <t>GY69HVZ</t>
   </si>
   <si>
     <t>EU64OMV</t>
   </si>
   <si>
-    <t>LF19KSP</t>
-  </si>
-  <si>
-    <t>WM19FJP</t>
+    <t>GJ69USX</t>
+  </si>
+  <si>
+    <t>VO69WTK</t>
+  </si>
+  <si>
+    <t>LT62XHG</t>
+  </si>
+  <si>
+    <t>VK69VOT</t>
+  </si>
+  <si>
+    <t>KV69OJK</t>
+  </si>
+  <si>
+    <t>LR19FKL</t>
+  </si>
+  <si>
+    <t>LG69AHY</t>
+  </si>
+  <si>
+    <t>LR19FKJ</t>
+  </si>
+  <si>
+    <t>KN69WWR</t>
+  </si>
+  <si>
+    <t>VO69HKV</t>
+  </si>
+  <si>
+    <t>RV69HFF</t>
+  </si>
+  <si>
+    <t>YS19CXA</t>
+  </si>
+  <si>
+    <t>FE10XAR</t>
+  </si>
+  <si>
+    <t>AP64LZU</t>
+  </si>
+  <si>
+    <t>LX63XSD</t>
+  </si>
+  <si>
+    <t>VO69CVN</t>
   </si>
 </sst>
 </file>
@@ -107,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -121,24 +271,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -169,6 +331,236 @@
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
